--- a/AutoTestNg/src/main/java/AutoTest/flow/json_al.xlsx
+++ b/AutoTestNg/src/main/java/AutoTest/flow/json_al.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="案例信息" sheetId="6" r:id="rId1"/>
@@ -28,16 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>a2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sql</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,10 +79,6 @@
   </si>
   <si>
     <t>a4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -225,6 +217,22 @@
  }
  ]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sign}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -285,6 +293,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,18 +591,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -628,18 +639,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -665,18 +676,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -700,80 +711,80 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -799,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -815,22 +826,22 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -841,19 +852,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -865,10 +876,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -876,14 +887,20 @@
     <col min="1" max="1" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>47</v>
+      <c r="B2" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -908,22 +925,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/AutoTestNg/src/main/java/AutoTest/flow/json_al.xlsx
+++ b/AutoTestNg/src/main/java/AutoTest/flow/json_al.xlsx
@@ -30,10 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
-    <t>a2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sql</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{from Sheet(name="form",value="A,2")}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{from Sheet(name="案例数据",value="E,2")}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,6 +196,18 @@
   </si>
   <si>
     <t>application/json</t>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sign}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -212,27 +216,23 @@
  "error_msg": "",
  "data": [
   {
-   "loaned_code": "${xyz}",
-   "product_biz_type": "CommissionLoan"
+   "loaned_code": "${x}",
+   "product_biz_type": "${y}"
  }
  ]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${sign}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xyz</t>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{from Sheet(name="案例数据",value="D,2")}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,18 +591,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -639,18 +639,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -676,18 +676,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -711,80 +711,80 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +811,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -826,22 +826,22 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -850,21 +850,21 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +879,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -889,18 +889,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -925,22 +925,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/AutoTestNg/src/main/java/AutoTest/flow/json_al.xlsx
+++ b/AutoTestNg/src/main/java/AutoTest/flow/json_al.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Sql</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,14 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{from Sheet(name="案例数据",value="E,2")}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111222333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,10 +191,6 @@
   </si>
   <si>
     <t>${sign}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xyz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,6 +208,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{from Sheet(name="案例数据",value="D,2")}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{from Sheet(name="json",value="A,2")}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,7 +228,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{from Sheet(name="案例数据",value="D,2")}</t>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +598,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -602,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -647,10 +651,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -684,10 +688,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -711,13 +715,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -725,66 +729,66 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +815,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -826,22 +830,22 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -852,19 +856,22 @@
     </row>
     <row r="2" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -889,18 +896,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/AutoTestNg/src/main/java/AutoTest/flow/json_al.xlsx
+++ b/AutoTestNg/src/main/java/AutoTest/flow/json_al.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Sql</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,10 +187,6 @@
   </si>
   <si>
     <t>sign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${sign}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -236,7 +232,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yyy</t>
+    <t>{from Sheet(name="案例数据",value="G,2")}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sign}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jlkjhlkj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdsjfhs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{from java (name="com.aaa.query" value="1,2,3,4,5" )}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,10 +824,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -836,18 +848,20 @@
         <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -862,16 +876,24 @@
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -886,7 +908,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -904,10 +926,10 @@
     </row>
     <row r="2" spans="1:2" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/AutoTestNg/src/main/java/AutoTest/flow/json_al.xlsx
+++ b/AutoTestNg/src/main/java/AutoTest/flow/json_al.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Sql</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hello</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +102,6 @@
   </si>
   <si>
     <t>TestName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -204,18 +196,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{from Sheet(name="案例数据",value="D,2")}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sign</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{from Sheet(name="json",value="A,2")}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,7 +208,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>z</t>
+    <t>${sign}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -232,23 +239,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{from Sheet(name="案例数据",value="G,2")}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${sign}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jlkjhlkj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jdsjfhs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{from java (name="com.aaa.query" value="1,2,3,4,5" )}</t>
+    <t>yyy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,15 +257,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -301,12 +283,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -593,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -618,7 +598,15 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -627,12 +615,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>字典项!$A$1:$A$2</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>字典项!$A$5:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -700,10 +694,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -727,13 +721,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -741,66 +735,66 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -824,10 +818,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -840,61 +834,48 @@
     <col min="6" max="6" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -918,18 +899,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -941,10 +922,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -972,6 +953,16 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AutoTestNg/src/main/java/AutoTest/flow/json_al.xlsx
+++ b/AutoTestNg/src/main/java/AutoTest/flow/json_al.xlsx
@@ -818,10 +818,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -873,9 +873,6 @@
         <v>51</v>
       </c>
       <c r="F2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
